--- a/storage/runs/example-run/workingDir/DataSheet.xlsx
+++ b/storage/runs/example-run/workingDir/DataSheet.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="13">
   <si>
     <t>Control</t>
   </si>
@@ -54,21 +54,6 @@
   </si>
   <si>
     <t>ToxA_R2_S2_L005_R1_001_x.fastq.gz</t>
-  </si>
-  <si>
-    <t>ToxB</t>
-  </si>
-  <si>
-    <t>ToxB_1</t>
-  </si>
-  <si>
-    <t>ToxB_2</t>
-  </si>
-  <si>
-    <t>ToxB_R1_98_S4_L008_R1_001_x.fastq.gz</t>
-  </si>
-  <si>
-    <t>ToxB_R2_S4_L005_R1_001_x.fastq.gz</t>
   </si>
 </sst>
 </file>
@@ -429,7 +414,7 @@
   <sheetPr>
     <outlinePr summaryRight="1" summaryBelow="1"/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -510,34 +495,6 @@
         <v>10</v>
       </c>
     </row>
-    <row spans="1:4" r="6">
-      <c s="1" t="n" r="A6">
-        <v>4</v>
-      </c>
-      <c t="s" r="B6">
-        <v>16</v>
-      </c>
-      <c t="s" r="C6">
-        <v>13</v>
-      </c>
-      <c t="s" r="D6">
-        <v>14</v>
-      </c>
-    </row>
-    <row spans="1:4" r="7">
-      <c s="1" t="n" r="A7">
-        <v>5</v>
-      </c>
-      <c t="s" r="B7">
-        <v>17</v>
-      </c>
-      <c t="s" r="C7">
-        <v>13</v>
-      </c>
-      <c t="s" r="D7">
-        <v>15</v>
-      </c>
-    </row>
   </sheetData>
 </worksheet>
 </file>